--- a/LGA-Regions.xlsx
+++ b/LGA-Regions.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDE2574A-0D1D-4057-B41C-9C7AB7708227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DE8DDD-C89D-498C-9F27-21B119BF3A9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{1A109F9A-8592-4646-A581-708CE72A1E47}"/>
   </bookViews>
   <sheets>
-    <sheet name="LGA Regions VIC" sheetId="1" r:id="rId1"/>
+    <sheet name="LGA Regions NSW" sheetId="2" r:id="rId1"/>
+    <sheet name="LGA Regions VIC" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="314">
   <si>
     <t>Local government area</t>
   </si>
@@ -547,13 +548,442 @@
   </si>
   <si>
     <t>Swan Hill</t>
+  </si>
+  <si>
+    <t>Bayside (A)</t>
+  </si>
+  <si>
+    <t>Greater metropolitan Sydney</t>
+  </si>
+  <si>
+    <t>Blacktown (C)</t>
+  </si>
+  <si>
+    <t>Burwood, (A)</t>
+  </si>
+  <si>
+    <t>Camden (A)</t>
+  </si>
+  <si>
+    <t>Campbelltown, (C)</t>
+  </si>
+  <si>
+    <t>Canada Bay, (C)</t>
+  </si>
+  <si>
+    <t>Canterbury-Bankstown, (C)</t>
+  </si>
+  <si>
+    <t>Cumberland (C)</t>
+  </si>
+  <si>
+    <t>Fairfield, (C)</t>
+  </si>
+  <si>
+    <t>Georges River (A)</t>
+  </si>
+  <si>
+    <t>Hornsby Shire (A)</t>
+  </si>
+  <si>
+    <t>Hunter's Hill, (A)</t>
+  </si>
+  <si>
+    <t>Inner West (A)</t>
+  </si>
+  <si>
+    <t>Ku-ring-gai (A)</t>
+  </si>
+  <si>
+    <t>Lane Cove (A)</t>
+  </si>
+  <si>
+    <t>Liverpool, (C)</t>
+  </si>
+  <si>
+    <t>Mosman (A)</t>
+  </si>
+  <si>
+    <t>North Sydney (A)</t>
+  </si>
+  <si>
+    <t>Northern Beaches (A)</t>
+  </si>
+  <si>
+    <t>Parramatta, (C)</t>
+  </si>
+  <si>
+    <t>Penrith, (C)</t>
+  </si>
+  <si>
+    <t>Randwick, (C)</t>
+  </si>
+  <si>
+    <t>Ryde, (C)</t>
+  </si>
+  <si>
+    <t>Strathfield, (A)</t>
+  </si>
+  <si>
+    <t>Sutherland Shire (A)</t>
+  </si>
+  <si>
+    <t>Sydney, (C)</t>
+  </si>
+  <si>
+    <t>The Hills Shire (A)</t>
+  </si>
+  <si>
+    <t>Waverley, (A)</t>
+  </si>
+  <si>
+    <t>Willoughby, (C)</t>
+  </si>
+  <si>
+    <t>Woollahra, (A)</t>
+  </si>
+  <si>
+    <t>Blue Mountains, (C)</t>
+  </si>
+  <si>
+    <t>Sydney surrounds</t>
+  </si>
+  <si>
+    <t>Central Coast (A)</t>
+  </si>
+  <si>
+    <t>Hawkesbury, (C)</t>
+  </si>
+  <si>
+    <t>Wollondilly Shire (A)</t>
+  </si>
+  <si>
+    <t>Bellingen Shire (A)</t>
+  </si>
+  <si>
+    <t>Mid North Coast</t>
+  </si>
+  <si>
+    <t>Clarence Valley (A)</t>
+  </si>
+  <si>
+    <t>Coffs Harbour, (C)</t>
+  </si>
+  <si>
+    <t>Kempsey Shire (A)</t>
+  </si>
+  <si>
+    <t>Nambucca Valley (A)</t>
+  </si>
+  <si>
+    <t>Port Macquarie-Hastings (A)</t>
+  </si>
+  <si>
+    <t>Lord Howe Island</t>
+  </si>
+  <si>
+    <t>Albury, (C)</t>
+  </si>
+  <si>
+    <t>Murray</t>
+  </si>
+  <si>
+    <t>Balranald Shire (A)</t>
+  </si>
+  <si>
+    <t>Berrigan Shire (A)</t>
+  </si>
+  <si>
+    <t>Edward River (A)</t>
+  </si>
+  <si>
+    <t>Federation (A)</t>
+  </si>
+  <si>
+    <t>Greater Hume Shire (A)</t>
+  </si>
+  <si>
+    <t>Murray River (A)</t>
+  </si>
+  <si>
+    <t>Wentworth Shire (A)</t>
+  </si>
+  <si>
+    <t>Bland Shire (A)</t>
+  </si>
+  <si>
+    <t>The Riverina</t>
+  </si>
+  <si>
+    <t>Carrathool Shire (A)</t>
+  </si>
+  <si>
+    <t>Coolamon Shire (A)</t>
+  </si>
+  <si>
+    <t>Cootamundra-Gundagai Regional (A)</t>
+  </si>
+  <si>
+    <t>Griffith, (C)</t>
+  </si>
+  <si>
+    <t>Hay Shire (A)</t>
+  </si>
+  <si>
+    <t>Junee Shire (A)</t>
+  </si>
+  <si>
+    <t>Leeton Shire (A)</t>
+  </si>
+  <si>
+    <t>Lockhart Shire (A)</t>
+  </si>
+  <si>
+    <t>Murrumbidgee (A)</t>
+  </si>
+  <si>
+    <t>Narrandera Shire (A)</t>
+  </si>
+  <si>
+    <t>Snowy Valleys (A)</t>
+  </si>
+  <si>
+    <t>Temora Shire (A)</t>
+  </si>
+  <si>
+    <t>Wagga Wagga, (C)</t>
+  </si>
+  <si>
+    <t>Cessnock, (C)</t>
+  </si>
+  <si>
+    <t>Newcastle and Hunter</t>
+  </si>
+  <si>
+    <t>Dungog Shire (A)</t>
+  </si>
+  <si>
+    <t>Lake Macquarie, (C)</t>
+  </si>
+  <si>
+    <t>Maitland, (C)</t>
+  </si>
+  <si>
+    <t>Mid-Coast (A)</t>
+  </si>
+  <si>
+    <t>Muswellbrook Shire (A)</t>
+  </si>
+  <si>
+    <t>Newcastle, (C)</t>
+  </si>
+  <si>
+    <t>Port Stephens (A)</t>
+  </si>
+  <si>
+    <t>Singleton (A)</t>
+  </si>
+  <si>
+    <t>Upper Hunter Shire (A)</t>
+  </si>
+  <si>
+    <t>Kiama, (A)</t>
+  </si>
+  <si>
+    <t>Illawarra</t>
+  </si>
+  <si>
+    <t>Shellharbour, (C)</t>
+  </si>
+  <si>
+    <t>Shoalhaven, (C)</t>
+  </si>
+  <si>
+    <t>Wingecarribee Shire (A)</t>
+  </si>
+  <si>
+    <t>Wollongong, (C)</t>
+  </si>
+  <si>
+    <t>Ballina Shire (A)</t>
+  </si>
+  <si>
+    <t>Richmond-Tweed</t>
+  </si>
+  <si>
+    <t>Byron Shire (A)</t>
+  </si>
+  <si>
+    <t>Kyogle (A)</t>
+  </si>
+  <si>
+    <t>Lismore, (C)</t>
+  </si>
+  <si>
+    <t>Richmond Valley (A)</t>
+  </si>
+  <si>
+    <t>Tweed Shire (A)</t>
+  </si>
+  <si>
+    <t>Bega Valley Shire (A)</t>
+  </si>
+  <si>
+    <t>South East</t>
+  </si>
+  <si>
+    <t>Eurobodalla Shire (A)</t>
+  </si>
+  <si>
+    <t>Goulburn Mulwaree (A)</t>
+  </si>
+  <si>
+    <t>Hilltops (A)</t>
+  </si>
+  <si>
+    <t>Queanbeyan–Palerang Regional (A)</t>
+  </si>
+  <si>
+    <t>Snowy Monaro Regional (A)</t>
+  </si>
+  <si>
+    <t>Upper Lachlan Shire (A)</t>
+  </si>
+  <si>
+    <t>Yass Valley (A)</t>
+  </si>
+  <si>
+    <t>Armidale Regional (A)</t>
+  </si>
+  <si>
+    <t>Northern</t>
+  </si>
+  <si>
+    <t>Glen Innes Severn (A)</t>
+  </si>
+  <si>
+    <t>Gunnedah Shire (A)</t>
+  </si>
+  <si>
+    <t>Gwydir Shire (A)</t>
+  </si>
+  <si>
+    <t>Inverell Shire (A)</t>
+  </si>
+  <si>
+    <t>Liverpool Plains Shire (A)</t>
+  </si>
+  <si>
+    <t>Moree Plains Shire (A)</t>
+  </si>
+  <si>
+    <t>Narrabri Shire (A)</t>
+  </si>
+  <si>
+    <t>Tamworth Regional (A)</t>
+  </si>
+  <si>
+    <t>Tenterfield Shire (A)</t>
+  </si>
+  <si>
+    <t>Uralla Shire (A)</t>
+  </si>
+  <si>
+    <t>Walcha Shire (A)</t>
+  </si>
+  <si>
+    <t>Bathurst Regional</t>
+  </si>
+  <si>
+    <t>Central West</t>
+  </si>
+  <si>
+    <t>Blayney Shire (A)</t>
+  </si>
+  <si>
+    <t>Cabonne Shire (A)</t>
+  </si>
+  <si>
+    <t>Cowra Shire (A)</t>
+  </si>
+  <si>
+    <t>Forbes Shire (A)</t>
+  </si>
+  <si>
+    <t>Lachlan Shire (A)</t>
+  </si>
+  <si>
+    <t>Lithgow, (C)</t>
+  </si>
+  <si>
+    <t>Mid-Western Regional</t>
+  </si>
+  <si>
+    <t>Oberon Shire (A)</t>
+  </si>
+  <si>
+    <t>Orange, (C)</t>
+  </si>
+  <si>
+    <t>Parkes Shire (A)</t>
+  </si>
+  <si>
+    <t>Weddin Shire (A)</t>
+  </si>
+  <si>
+    <t>Bogan Shire (A)</t>
+  </si>
+  <si>
+    <t>North Western</t>
+  </si>
+  <si>
+    <t>Bourke Shire (A)</t>
+  </si>
+  <si>
+    <t>Brewarrina Shire (A)</t>
+  </si>
+  <si>
+    <t>Cobar Shire (A)</t>
+  </si>
+  <si>
+    <t>Coonamble Shire (A)</t>
+  </si>
+  <si>
+    <t>Dubbo Regional (A)</t>
+  </si>
+  <si>
+    <t>Gilgandra Shire (A)</t>
+  </si>
+  <si>
+    <t>Narromine Shire (A)</t>
+  </si>
+  <si>
+    <t>Walgett Shire (A)</t>
+  </si>
+  <si>
+    <t>Warren Shire (A)</t>
+  </si>
+  <si>
+    <t>Warrumbungle Shire (A)</t>
+  </si>
+  <si>
+    <t>Broken Hill, (C)</t>
+  </si>
+  <si>
+    <t>Far West</t>
+  </si>
+  <si>
+    <t>Central Darling Shire (A)</t>
+  </si>
+  <si>
+    <t>Unincorporated Far West</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -564,6 +994,12 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -588,14 +1024,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="12">
     <dxf>
       <font>
         <b val="0"/>
@@ -608,7 +1045,34 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color indexed="8"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="none"/>
@@ -784,6 +1248,113 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -798,14 +1369,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1B195B9A-B858-4990-BA71-BD09100E454C}" name="LGA_Regions_VIC" displayName="LGA_Regions_VIC" ref="A1:E80" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CD9C34B7-A0E7-4EC9-A30A-32CCBD77D886}" name="LGA_Regions_NSW" displayName="LGA_Regions_NSW" ref="A1:C131" totalsRowShown="0" headerRowDxfId="1" dataDxfId="2">
+  <autoFilter ref="A1:C131" xr:uid="{CD9C34B7-A0E7-4EC9-A30A-32CCBD77D886}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{D84FFF9B-CDFE-490D-B021-7EAC9073A65A}" name="Local government area" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{4BAE0E89-7505-4CDC-8F19-81D5B37A3EBC}" name="Region" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{EF27565F-7422-41E7-9E40-46F8D2BBCB05}" name="Region - Sort" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1B195B9A-B858-4990-BA71-BD09100E454C}" name="LGA_Regions_VIC" displayName="LGA_Regions_VIC" ref="A1:E80" totalsRowShown="0" headerRowDxfId="0" dataDxfId="11">
   <autoFilter ref="A1:E80" xr:uid="{1B195B9A-B858-4990-BA71-BD09100E454C}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{8A57A3F4-9337-4DBA-AAA5-261E881DD012}" name="Local government area" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{CF91C04A-8052-49B7-8518-E7829A3CB7E3}" name="Region" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{A56D5059-0EB6-4DC5-9E8E-4923F1D349A2}" name="Region - Sort" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{EF78B89E-1294-4E62-A036-3406F8D74DEF}" name="Local government area - Copy" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{028A4551-BC6A-4C20-B5D8-0FC076F5C2C0}" name="Local government area for matching" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{8A57A3F4-9337-4DBA-AAA5-261E881DD012}" name="Local government area" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{CF91C04A-8052-49B7-8518-E7829A3CB7E3}" name="Region" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{A56D5059-0EB6-4DC5-9E8E-4923F1D349A2}" name="Region - Sort" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{EF78B89E-1294-4E62-A036-3406F8D74DEF}" name="Local government area - Copy" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{028A4551-BC6A-4C20-B5D8-0FC076F5C2C0}" name="Local government area for matching" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1107,11 +1690,1474 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2DD1B4E-1FB8-4E23-A120-BD101593506B}">
+  <dimension ref="A1:C131"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="21.1328125" customWidth="1"/>
+    <col min="3" max="3" width="13.06640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A29" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A30" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A31" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A32" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C32" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A33" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C33" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A34" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C34" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A35" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C35" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A36" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C36" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A37" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C37" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A38" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C38" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A39" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C39" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A40" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C40" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A41" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C41" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A42" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C42" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A43" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C43" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A44" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C44" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A45" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C45" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A46" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C46" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A47" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C47" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A48" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C48" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A49" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C49" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A50" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C50" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A51" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C51" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A52" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C52" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A53" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C53" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A54" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C54" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A55" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C55" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A56" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C56" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A57" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C57" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A58" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C58" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A59" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C59" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A60" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C60" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A61" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C61" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A62" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C62" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A63" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C63" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A64" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C64" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A65" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C65" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A66" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C66" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A67" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C67" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A68" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C68" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A69" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C69" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A70" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C70" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A71" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C71" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A72" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C72" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A73" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C73" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A74" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C74" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A75" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C75" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A76" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C76" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A77" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C77" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A78" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C78" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A79" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C79" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A80" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C80" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A81" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C81" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A82" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C82" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A83" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C83" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A84" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C84" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A85" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C85" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A86" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C86" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A87" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C87" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A88" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C88" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A89" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C89" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A90" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C90" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A91" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C91" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A92" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C92" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A93" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C93" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A94" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C94" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A95" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C95" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A96" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C96" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A97" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C97" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A98" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C98" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A99" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C99" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A100" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C100" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A101" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C101" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A102" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C102" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A103" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C103" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A104" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C104" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A105" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C105" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A106" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C106" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A107" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C107" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A108" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C108" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A109" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C109" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A110" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C110" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A111" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C111" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A112" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C112" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A113" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C113" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A114" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C114" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A115" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C115" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A116" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C116" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A117" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C117" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A118" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C118" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A119" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C119" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A120" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C120" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A121" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C121" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A122" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C122" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A123" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C123" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A124" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C124" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A125" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C125" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A126" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C126" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A127" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C127" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A128" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C128" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A129" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C129" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A130" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C130" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A131" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C131" s="1">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BF705EE-288C-46EC-B42B-0DEDB2DBA442}">
   <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E80"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1123,19 +3169,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>

--- a/LGA-Regions.xlsx
+++ b/LGA-Regions.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DE8DDD-C89D-498C-9F27-21B119BF3A9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7513C717-5FFB-4949-B4D2-06826B0A4CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{1A109F9A-8592-4646-A581-708CE72A1E47}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="1" xr2:uid="{1A109F9A-8592-4646-A581-708CE72A1E47}"/>
   </bookViews>
   <sheets>
     <sheet name="LGA Regions NSW" sheetId="2" r:id="rId1"/>
     <sheet name="LGA Regions VIC" sheetId="1" r:id="rId2"/>
+    <sheet name="LGA Regions QLD" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="483">
   <si>
     <t>Local government area</t>
   </si>
@@ -977,6 +978,513 @@
   </si>
   <si>
     <t>Unincorporated Far West</t>
+  </si>
+  <si>
+    <t>LGA code</t>
+  </si>
+  <si>
+    <t>Local Government Area</t>
+  </si>
+  <si>
+    <t>South East Queensland</t>
+  </si>
+  <si>
+    <t>31000</t>
+  </si>
+  <si>
+    <t>Brisbane</t>
+  </si>
+  <si>
+    <t>33430</t>
+  </si>
+  <si>
+    <t>Gold Coast</t>
+  </si>
+  <si>
+    <t>33960</t>
+  </si>
+  <si>
+    <t>Ipswich</t>
+  </si>
+  <si>
+    <t>34580</t>
+  </si>
+  <si>
+    <t>Lockyer Valley</t>
+  </si>
+  <si>
+    <t>34590</t>
+  </si>
+  <si>
+    <t>Logan</t>
+  </si>
+  <si>
+    <t>35010</t>
+  </si>
+  <si>
+    <t>Moreton Bay</t>
+  </si>
+  <si>
+    <t>35740</t>
+  </si>
+  <si>
+    <t>Noosa</t>
+  </si>
+  <si>
+    <t>36250</t>
+  </si>
+  <si>
+    <t>Redland</t>
+  </si>
+  <si>
+    <t>36510</t>
+  </si>
+  <si>
+    <t>Scenic Rim</t>
+  </si>
+  <si>
+    <t>36580</t>
+  </si>
+  <si>
+    <t>Somerset</t>
+  </si>
+  <si>
+    <t>36720</t>
+  </si>
+  <si>
+    <t>Sunshine Coast</t>
+  </si>
+  <si>
+    <t>Wide Bay-Burnett</t>
+  </si>
+  <si>
+    <t>30370</t>
+  </si>
+  <si>
+    <t>Banana</t>
+  </si>
+  <si>
+    <t>31820</t>
+  </si>
+  <si>
+    <t>Bundaberg</t>
+  </si>
+  <si>
+    <t>32330</t>
+  </si>
+  <si>
+    <t>Cherbourg</t>
+  </si>
+  <si>
+    <t>33220</t>
+  </si>
+  <si>
+    <t>Fraser Coast</t>
+  </si>
+  <si>
+    <t>33620</t>
+  </si>
+  <si>
+    <t>Gympie</t>
+  </si>
+  <si>
+    <t>35760</t>
+  </si>
+  <si>
+    <t>North Burnett</t>
+  </si>
+  <si>
+    <t>36630</t>
+  </si>
+  <si>
+    <t>South Burnett</t>
+  </si>
+  <si>
+    <t>Darling Downs</t>
+  </si>
+  <si>
+    <t>33610</t>
+  </si>
+  <si>
+    <t>Goondiwindi</t>
+  </si>
+  <si>
+    <t>36660</t>
+  </si>
+  <si>
+    <t>Southern Downs</t>
+  </si>
+  <si>
+    <t>36910</t>
+  </si>
+  <si>
+    <t>Toowoomba</t>
+  </si>
+  <si>
+    <t>37310</t>
+  </si>
+  <si>
+    <t>Western Downs</t>
+  </si>
+  <si>
+    <t>Central Queensland</t>
+  </si>
+  <si>
+    <t>32270</t>
+  </si>
+  <si>
+    <t>Central Highlands (Qld)</t>
+  </si>
+  <si>
+    <t>33360</t>
+  </si>
+  <si>
+    <t>Gladstone</t>
+  </si>
+  <si>
+    <t>33980</t>
+  </si>
+  <si>
+    <t>Isaac</t>
+  </si>
+  <si>
+    <t>34530</t>
+  </si>
+  <si>
+    <t>Livingstone</t>
+  </si>
+  <si>
+    <t>36370</t>
+  </si>
+  <si>
+    <t>Rockhampton</t>
+  </si>
+  <si>
+    <t>37550</t>
+  </si>
+  <si>
+    <t>Woorabinda</t>
+  </si>
+  <si>
+    <t>North Queensland</t>
+  </si>
+  <si>
+    <t>31900</t>
+  </si>
+  <si>
+    <t>Burdekin</t>
+  </si>
+  <si>
+    <t>32310</t>
+  </si>
+  <si>
+    <t>Charters Towers</t>
+  </si>
+  <si>
+    <t>33800</t>
+  </si>
+  <si>
+    <t>Hinchinbrook</t>
+  </si>
+  <si>
+    <t>34770</t>
+  </si>
+  <si>
+    <t>Mackay</t>
+  </si>
+  <si>
+    <t>35790</t>
+  </si>
+  <si>
+    <t>Palm Island</t>
+  </si>
+  <si>
+    <t>37010</t>
+  </si>
+  <si>
+    <t>Townsville</t>
+  </si>
+  <si>
+    <t>37340</t>
+  </si>
+  <si>
+    <t>Whitsunday</t>
+  </si>
+  <si>
+    <t>Far North Queensland</t>
+  </si>
+  <si>
+    <t>30250</t>
+  </si>
+  <si>
+    <t>Aurukun</t>
+  </si>
+  <si>
+    <t>32080</t>
+  </si>
+  <si>
+    <t>Cairns</t>
+  </si>
+  <si>
+    <t>32260</t>
+  </si>
+  <si>
+    <t>Cassowary Coast</t>
+  </si>
+  <si>
+    <t>32500</t>
+  </si>
+  <si>
+    <t>Cook</t>
+  </si>
+  <si>
+    <t>32810</t>
+  </si>
+  <si>
+    <t>Douglas</t>
+  </si>
+  <si>
+    <t>33830</t>
+  </si>
+  <si>
+    <t>Hope Vale</t>
+  </si>
+  <si>
+    <t>34420</t>
+  </si>
+  <si>
+    <t>Kowanyama</t>
+  </si>
+  <si>
+    <t>34570</t>
+  </si>
+  <si>
+    <t>Lockhart River</t>
+  </si>
+  <si>
+    <t>34830</t>
+  </si>
+  <si>
+    <t>Mapoon</t>
+  </si>
+  <si>
+    <t>34880</t>
+  </si>
+  <si>
+    <t>Mareeba</t>
+  </si>
+  <si>
+    <t>35670</t>
+  </si>
+  <si>
+    <t>Napranum</t>
+  </si>
+  <si>
+    <t>35780</t>
+  </si>
+  <si>
+    <t>Northern Peninsula Area</t>
+  </si>
+  <si>
+    <t>36070</t>
+  </si>
+  <si>
+    <t>Pormpuraaw</t>
+  </si>
+  <si>
+    <t>36820</t>
+  </si>
+  <si>
+    <t>Tablelands</t>
+  </si>
+  <si>
+    <t>36950</t>
+  </si>
+  <si>
+    <t>Torres</t>
+  </si>
+  <si>
+    <t>36960</t>
+  </si>
+  <si>
+    <t>Torres Strait Island</t>
+  </si>
+  <si>
+    <t>37300</t>
+  </si>
+  <si>
+    <t>Weipa</t>
+  </si>
+  <si>
+    <t>37570</t>
+  </si>
+  <si>
+    <t>Wujal Wujal</t>
+  </si>
+  <si>
+    <t>37600</t>
+  </si>
+  <si>
+    <t>Yarrabah</t>
+  </si>
+  <si>
+    <t>North West Queensland</t>
+  </si>
+  <si>
+    <t>31950</t>
+  </si>
+  <si>
+    <t>Burke</t>
+  </si>
+  <si>
+    <t>32250</t>
+  </si>
+  <si>
+    <t>Carpentaria</t>
+  </si>
+  <si>
+    <t>32450</t>
+  </si>
+  <si>
+    <t>Cloncurry</t>
+  </si>
+  <si>
+    <t>32600</t>
+  </si>
+  <si>
+    <t>Croydon</t>
+  </si>
+  <si>
+    <t>32770</t>
+  </si>
+  <si>
+    <t>Doomadgee</t>
+  </si>
+  <si>
+    <t>33100</t>
+  </si>
+  <si>
+    <t>Etheridge</t>
+  </si>
+  <si>
+    <t>33200</t>
+  </si>
+  <si>
+    <t>Flinders (Qld)</t>
+  </si>
+  <si>
+    <t>34800</t>
+  </si>
+  <si>
+    <t>McKinlay</t>
+  </si>
+  <si>
+    <t>35250</t>
+  </si>
+  <si>
+    <t>Mornington</t>
+  </si>
+  <si>
+    <t>35300</t>
+  </si>
+  <si>
+    <t>Mount Isa</t>
+  </si>
+  <si>
+    <t>36300</t>
+  </si>
+  <si>
+    <t>Richmond</t>
+  </si>
+  <si>
+    <t>Central West Queensland</t>
+  </si>
+  <si>
+    <t>30410</t>
+  </si>
+  <si>
+    <t>Barcaldine</t>
+  </si>
+  <si>
+    <t>30450</t>
+  </si>
+  <si>
+    <t>Barcoo</t>
+  </si>
+  <si>
+    <t>30760</t>
+  </si>
+  <si>
+    <t>Blackall Tambo</t>
+  </si>
+  <si>
+    <t>30900</t>
+  </si>
+  <si>
+    <t>Boulia</t>
+  </si>
+  <si>
+    <t>32750</t>
+  </si>
+  <si>
+    <t>Diamantina</t>
+  </si>
+  <si>
+    <t>34710</t>
+  </si>
+  <si>
+    <t>Longreach</t>
+  </si>
+  <si>
+    <t>37400</t>
+  </si>
+  <si>
+    <t>Winton</t>
+  </si>
+  <si>
+    <t>South West Queensland</t>
+  </si>
+  <si>
+    <t>30300</t>
+  </si>
+  <si>
+    <t>Balonne</t>
+  </si>
+  <si>
+    <t>31750</t>
+  </si>
+  <si>
+    <t>Bulloo</t>
+  </si>
+  <si>
+    <t>34860</t>
+  </si>
+  <si>
+    <t>Maranoa</t>
+  </si>
+  <si>
+    <t>35600</t>
+  </si>
+  <si>
+    <t>Murweh</t>
+  </si>
+  <si>
+    <t>35800</t>
+  </si>
+  <si>
+    <t>Paroo</t>
+  </si>
+  <si>
+    <t>36150</t>
+  </si>
+  <si>
+    <t>Quilpie</t>
+  </si>
+  <si>
+    <t>City of Merri-bek</t>
+  </si>
+  <si>
+    <t>Merri-bek</t>
   </si>
 </sst>
 </file>
@@ -1026,13 +1534,13 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="17">
     <dxf>
       <font>
         <b val="0"/>
@@ -1045,7 +1553,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="0"/>
+        <color indexed="8"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="none"/>
@@ -1072,7 +1580,34 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="0"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="none"/>
@@ -1292,6 +1827,86 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
@@ -1355,6 +1970,33 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1369,26 +2011,38 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CD9C34B7-A0E7-4EC9-A30A-32CCBD77D886}" name="LGA_Regions_NSW" displayName="LGA_Regions_NSW" ref="A1:C131" totalsRowShown="0" headerRowDxfId="1" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CD9C34B7-A0E7-4EC9-A30A-32CCBD77D886}" name="LGA_Regions_NSW" displayName="LGA_Regions_NSW" ref="A1:C131" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="A1:C131" xr:uid="{CD9C34B7-A0E7-4EC9-A30A-32CCBD77D886}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{D84FFF9B-CDFE-490D-B021-7EAC9073A65A}" name="Local government area" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{4BAE0E89-7505-4CDC-8F19-81D5B37A3EBC}" name="Region" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{EF27565F-7422-41E7-9E40-46F8D2BBCB05}" name="Region - Sort" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{D84FFF9B-CDFE-490D-B021-7EAC9073A65A}" name="Local government area" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{4BAE0E89-7505-4CDC-8F19-81D5B37A3EBC}" name="Region" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{EF27565F-7422-41E7-9E40-46F8D2BBCB05}" name="Region - Sort" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1B195B9A-B858-4990-BA71-BD09100E454C}" name="LGA_Regions_VIC" displayName="LGA_Regions_VIC" ref="A1:E80" totalsRowShown="0" headerRowDxfId="0" dataDxfId="11">
-  <autoFilter ref="A1:E80" xr:uid="{1B195B9A-B858-4990-BA71-BD09100E454C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1B195B9A-B858-4990-BA71-BD09100E454C}" name="LGA_Regions_VIC" displayName="LGA_Regions_VIC" ref="A1:E81" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:E81" xr:uid="{1B195B9A-B858-4990-BA71-BD09100E454C}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{8A57A3F4-9337-4DBA-AAA5-261E881DD012}" name="Local government area" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{CF91C04A-8052-49B7-8518-E7829A3CB7E3}" name="Region" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{A56D5059-0EB6-4DC5-9E8E-4923F1D349A2}" name="Region - Sort" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{EF78B89E-1294-4E62-A036-3406F8D74DEF}" name="Local government area - Copy" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{028A4551-BC6A-4C20-B5D8-0FC076F5C2C0}" name="Local government area for matching" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{8A57A3F4-9337-4DBA-AAA5-261E881DD012}" name="Local government area" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{CF91C04A-8052-49B7-8518-E7829A3CB7E3}" name="Region" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{A56D5059-0EB6-4DC5-9E8E-4923F1D349A2}" name="Region - Sort" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{EF78B89E-1294-4E62-A036-3406F8D74DEF}" name="Local government area - Copy" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{028A4551-BC6A-4C20-B5D8-0FC076F5C2C0}" name="Local government area for matching" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{64C96B18-0BEB-4B4D-B259-16A5D1C25488}" name="LGA_Regions_QLD" displayName="LGA_Regions_QLD" ref="A1:C79" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:C79" xr:uid="{64C96B18-0BEB-4B4D-B259-16A5D1C25488}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{086522EF-213C-471F-AEC1-55572E22A61B}" name="Region" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{833AA5B1-E4F5-4B72-8411-C36DA3C264B9}" name="LGA code" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{6C84C86C-0D20-4C17-8CE9-84D771224481}" name="Local Government Area" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1693,7 +2347,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2DD1B4E-1FB8-4E23-A120-BD101593506B}">
   <dimension ref="A1:C131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -3154,10 +3808,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BF705EE-288C-46EC-B42B-0DEDB2DBA442}">
-  <dimension ref="A1:E80"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3459,7 +4113,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>39</v>
+        <v>481</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>15</v>
@@ -3468,32 +4122,32 @@
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>40</v>
+        <v>482</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>40</v>
+        <v>482</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>42</v>
@@ -3502,15 +4156,15 @@
         <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>42</v>
@@ -3519,15 +4173,15 @@
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>42</v>
@@ -3536,15 +4190,15 @@
         <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>42</v>
@@ -3553,15 +4207,15 @@
         <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>42</v>
@@ -3570,15 +4224,15 @@
         <v>1</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>42</v>
@@ -3587,15 +4241,15 @@
         <v>1</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>42</v>
@@ -3604,15 +4258,15 @@
         <v>1</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>42</v>
@@ -3621,15 +4275,15 @@
         <v>1</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>42</v>
@@ -3638,15 +4292,15 @@
         <v>1</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>42</v>
@@ -3655,15 +4309,15 @@
         <v>1</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>42</v>
@@ -3672,15 +4326,15 @@
         <v>1</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>42</v>
@@ -3689,15 +4343,15 @@
         <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>42</v>
@@ -3706,32 +4360,32 @@
         <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C33" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>71</v>
@@ -3743,12 +4397,12 @@
         <v>72</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>71</v>
@@ -3757,15 +4411,15 @@
         <v>2</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>71</v>
@@ -3774,15 +4428,15 @@
         <v>2</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>71</v>
@@ -3791,15 +4445,15 @@
         <v>2</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>71</v>
@@ -3808,15 +4462,15 @@
         <v>2</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>71</v>
@@ -3825,15 +4479,15 @@
         <v>2</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>71</v>
@@ -3842,15 +4496,15 @@
         <v>2</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>71</v>
@@ -3859,32 +4513,32 @@
         <v>2</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="C42" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>91</v>
@@ -3893,15 +4547,15 @@
         <v>3</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>91</v>
@@ -3910,15 +4564,15 @@
         <v>3</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>91</v>
@@ -3927,15 +4581,15 @@
         <v>3</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>91</v>
@@ -3944,15 +4598,15 @@
         <v>3</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>91</v>
@@ -3961,15 +4615,15 @@
         <v>3</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>91</v>
@@ -3978,15 +4632,15 @@
         <v>3</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>91</v>
@@ -3995,15 +4649,15 @@
         <v>3</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>91</v>
@@ -4012,15 +4666,15 @@
         <v>3</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>91</v>
@@ -4029,15 +4683,15 @@
         <v>3</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>91</v>
@@ -4046,32 +4700,32 @@
         <v>3</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>114</v>
@@ -4080,15 +4734,15 @@
         <v>4</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>114</v>
@@ -4097,15 +4751,15 @@
         <v>4</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>114</v>
@@ -4114,15 +4768,15 @@
         <v>4</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>114</v>
@@ -4131,15 +4785,15 @@
         <v>4</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>114</v>
@@ -4148,32 +4802,32 @@
         <v>4</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>125</v>
+        <v>72</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="C59" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>53</v>
@@ -4182,15 +4836,15 @@
         <v>5</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>129</v>
+        <v>72</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>53</v>
@@ -4199,15 +4853,15 @@
         <v>5</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>53</v>
@@ -4216,15 +4870,15 @@
         <v>5</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>53</v>
@@ -4233,15 +4887,15 @@
         <v>5</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>53</v>
@@ -4250,15 +4904,15 @@
         <v>5</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>53</v>
@@ -4267,15 +4921,15 @@
         <v>5</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>53</v>
@@ -4284,15 +4938,15 @@
         <v>5</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>53</v>
@@ -4301,15 +4955,15 @@
         <v>5</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>53</v>
@@ -4318,15 +4972,15 @@
         <v>5</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>53</v>
@@ -4335,15 +4989,15 @@
         <v>5</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>53</v>
@@ -4352,32 +5006,32 @@
         <v>5</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>151</v>
+        <v>53</v>
       </c>
       <c r="C71" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>151</v>
@@ -4386,15 +5040,15 @@
         <v>6</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>151</v>
@@ -4403,15 +5057,15 @@
         <v>6</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>151</v>
@@ -4420,15 +5074,15 @@
         <v>6</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>151</v>
@@ -4437,15 +5091,15 @@
         <v>6</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>151</v>
@@ -4454,15 +5108,15 @@
         <v>6</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>151</v>
@@ -4471,15 +5125,15 @@
         <v>6</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>151</v>
@@ -4488,15 +5142,15 @@
         <v>6</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>151</v>
@@ -4505,15 +5159,15 @@
         <v>6</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>151</v>
@@ -4522,10 +5176,918 @@
         <v>6</v>
       </c>
       <c r="D80" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A81" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C81" s="1">
+        <v>6</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="E81" s="1" t="s">
         <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04BC24B8-F41E-40CA-8033-2ECF046AC01F}">
+  <dimension ref="A1:C79"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C79"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="10.19921875" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A29" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A30" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A31" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A32" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A33" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A34" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A35" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A36" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A37" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A38" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A39" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A40" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A41" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A42" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A43" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A44" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A45" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A46" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A47" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A48" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A49" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A50" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A51" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A52" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A53" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A54" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A55" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A56" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A57" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A58" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A59" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A60" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A61" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A62" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A63" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A64" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A65" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A66" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A67" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A68" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A69" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A70" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A71" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A72" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A73" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A74" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A75" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A76" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A77" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A78" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A79" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>480</v>
       </c>
     </row>
   </sheetData>

--- a/LGA-Regions.xlsx
+++ b/LGA-Regions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7513C717-5FFB-4949-B4D2-06826B0A4CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00AD7A4-4B1C-4A8F-962A-78E58851B547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="1" xr2:uid="{1A109F9A-8592-4646-A581-708CE72A1E47}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="2" xr2:uid="{1A109F9A-8592-4646-A581-708CE72A1E47}"/>
   </bookViews>
   <sheets>
     <sheet name="LGA Regions NSW" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="483">
   <si>
     <t>Local government area</t>
   </si>
@@ -1532,15 +1532,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2011,38 +2039,39 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CD9C34B7-A0E7-4EC9-A30A-32CCBD77D886}" name="LGA_Regions_NSW" displayName="LGA_Regions_NSW" ref="A1:C131" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CD9C34B7-A0E7-4EC9-A30A-32CCBD77D886}" name="LGA_Regions_NSW" displayName="LGA_Regions_NSW" ref="A1:C131" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A1:C131" xr:uid="{CD9C34B7-A0E7-4EC9-A30A-32CCBD77D886}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{D84FFF9B-CDFE-490D-B021-7EAC9073A65A}" name="Local government area" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{4BAE0E89-7505-4CDC-8F19-81D5B37A3EBC}" name="Region" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{EF27565F-7422-41E7-9E40-46F8D2BBCB05}" name="Region - Sort" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{D84FFF9B-CDFE-490D-B021-7EAC9073A65A}" name="Local government area" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{4BAE0E89-7505-4CDC-8F19-81D5B37A3EBC}" name="Region" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{EF27565F-7422-41E7-9E40-46F8D2BBCB05}" name="Region - Sort" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1B195B9A-B858-4990-BA71-BD09100E454C}" name="LGA_Regions_VIC" displayName="LGA_Regions_VIC" ref="A1:E81" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1B195B9A-B858-4990-BA71-BD09100E454C}" name="LGA_Regions_VIC" displayName="LGA_Regions_VIC" ref="A1:E81" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A1:E81" xr:uid="{1B195B9A-B858-4990-BA71-BD09100E454C}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{8A57A3F4-9337-4DBA-AAA5-261E881DD012}" name="Local government area" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{CF91C04A-8052-49B7-8518-E7829A3CB7E3}" name="Region" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{A56D5059-0EB6-4DC5-9E8E-4923F1D349A2}" name="Region - Sort" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{EF78B89E-1294-4E62-A036-3406F8D74DEF}" name="Local government area - Copy" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{028A4551-BC6A-4C20-B5D8-0FC076F5C2C0}" name="Local government area for matching" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{8A57A3F4-9337-4DBA-AAA5-261E881DD012}" name="Local government area" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{CF91C04A-8052-49B7-8518-E7829A3CB7E3}" name="Region" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{A56D5059-0EB6-4DC5-9E8E-4923F1D349A2}" name="Region - Sort" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{EF78B89E-1294-4E62-A036-3406F8D74DEF}" name="Local government area - Copy" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{028A4551-BC6A-4C20-B5D8-0FC076F5C2C0}" name="Local government area for matching" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{64C96B18-0BEB-4B4D-B259-16A5D1C25488}" name="LGA_Regions_QLD" displayName="LGA_Regions_QLD" ref="A1:C79" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:C79" xr:uid="{64C96B18-0BEB-4B4D-B259-16A5D1C25488}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{086522EF-213C-471F-AEC1-55572E22A61B}" name="Region" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{833AA5B1-E4F5-4B72-8411-C36DA3C264B9}" name="LGA code" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{6C84C86C-0D20-4C17-8CE9-84D771224481}" name="Local Government Area" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{64C96B18-0BEB-4B4D-B259-16A5D1C25488}" name="LGA_Regions_QLD" displayName="LGA_Regions_QLD" ref="A1:D79" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D79" xr:uid="{64C96B18-0BEB-4B4D-B259-16A5D1C25488}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{086522EF-213C-471F-AEC1-55572E22A61B}" name="Region" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{833AA5B1-E4F5-4B72-8411-C36DA3C264B9}" name="LGA code" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{6C84C86C-0D20-4C17-8CE9-84D771224481}" name="Local Government Area" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{7AAD1015-0C95-4323-8FAF-42C9A3985C68}" name="Region - Sort" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2347,7 +2376,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2DD1B4E-1FB8-4E23-A120-BD101593506B}">
   <dimension ref="A1:C131"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A112" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -3810,8 +3839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BF705EE-288C-46EC-B42B-0DEDB2DBA442}">
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3847,7 +3876,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
@@ -3864,7 +3893,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>9</v>
@@ -3881,7 +3910,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
@@ -3898,7 +3927,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
@@ -3915,7 +3944,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>16</v>
@@ -3932,7 +3961,7 @@
         <v>15</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>18</v>
@@ -3949,7 +3978,7 @@
         <v>15</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>20</v>
@@ -3966,7 +3995,7 @@
         <v>15</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>22</v>
@@ -3983,7 +4012,7 @@
         <v>15</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>24</v>
@@ -4000,7 +4029,7 @@
         <v>15</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>26</v>
@@ -4017,7 +4046,7 @@
         <v>15</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>28</v>
@@ -4034,7 +4063,7 @@
         <v>15</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>30</v>
@@ -4051,7 +4080,7 @@
         <v>15</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>32</v>
@@ -4068,7 +4097,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>34</v>
@@ -4085,7 +4114,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>36</v>
@@ -4102,7 +4131,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="1">
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>38</v>
@@ -4119,7 +4148,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="1">
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>482</v>
@@ -4136,7 +4165,7 @@
         <v>15</v>
       </c>
       <c r="C19" s="1">
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>40</v>
@@ -4153,7 +4182,7 @@
         <v>42</v>
       </c>
       <c r="C20" s="1">
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>43</v>
@@ -4170,7 +4199,7 @@
         <v>42</v>
       </c>
       <c r="C21" s="1">
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>45</v>
@@ -4187,7 +4216,7 @@
         <v>42</v>
       </c>
       <c r="C22" s="1">
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>47</v>
@@ -4204,7 +4233,7 @@
         <v>42</v>
       </c>
       <c r="C23" s="1">
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>49</v>
@@ -4221,7 +4250,7 @@
         <v>42</v>
       </c>
       <c r="C24" s="1">
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>51</v>
@@ -4238,7 +4267,7 @@
         <v>42</v>
       </c>
       <c r="C25" s="1">
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>53</v>
@@ -4255,7 +4284,7 @@
         <v>42</v>
       </c>
       <c r="C26" s="1">
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>55</v>
@@ -4272,7 +4301,7 @@
         <v>42</v>
       </c>
       <c r="C27" s="1">
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>57</v>
@@ -4289,7 +4318,7 @@
         <v>42</v>
       </c>
       <c r="C28" s="1">
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>59</v>
@@ -4306,7 +4335,7 @@
         <v>42</v>
       </c>
       <c r="C29" s="1">
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>61</v>
@@ -4323,7 +4352,7 @@
         <v>42</v>
       </c>
       <c r="C30" s="1">
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>63</v>
@@ -4340,7 +4369,7 @@
         <v>42</v>
       </c>
       <c r="C31" s="1">
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>65</v>
@@ -4357,7 +4386,7 @@
         <v>42</v>
       </c>
       <c r="C32" s="1">
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>67</v>
@@ -4374,7 +4403,7 @@
         <v>42</v>
       </c>
       <c r="C33" s="1">
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>69</v>
@@ -4391,7 +4420,7 @@
         <v>71</v>
       </c>
       <c r="C34" s="1">
-        <v>2</v>
+        <v>302</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>72</v>
@@ -4408,7 +4437,7 @@
         <v>71</v>
       </c>
       <c r="C35" s="1">
-        <v>2</v>
+        <v>302</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>72</v>
@@ -4425,7 +4454,7 @@
         <v>71</v>
       </c>
       <c r="C36" s="1">
-        <v>2</v>
+        <v>302</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>77</v>
@@ -4442,7 +4471,7 @@
         <v>71</v>
       </c>
       <c r="C37" s="1">
-        <v>2</v>
+        <v>302</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>79</v>
@@ -4459,7 +4488,7 @@
         <v>71</v>
       </c>
       <c r="C38" s="1">
-        <v>2</v>
+        <v>302</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>81</v>
@@ -4476,7 +4505,7 @@
         <v>71</v>
       </c>
       <c r="C39" s="1">
-        <v>2</v>
+        <v>302</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>83</v>
@@ -4493,7 +4522,7 @@
         <v>71</v>
       </c>
       <c r="C40" s="1">
-        <v>2</v>
+        <v>302</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>85</v>
@@ -4510,7 +4539,7 @@
         <v>71</v>
       </c>
       <c r="C41" s="1">
-        <v>2</v>
+        <v>302</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>72</v>
@@ -4527,7 +4556,7 @@
         <v>71</v>
       </c>
       <c r="C42" s="1">
-        <v>2</v>
+        <v>302</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>89</v>
@@ -4544,7 +4573,7 @@
         <v>91</v>
       </c>
       <c r="C43" s="1">
-        <v>3</v>
+        <v>303</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>92</v>
@@ -4561,7 +4590,7 @@
         <v>91</v>
       </c>
       <c r="C44" s="1">
-        <v>3</v>
+        <v>303</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>94</v>
@@ -4578,7 +4607,7 @@
         <v>91</v>
       </c>
       <c r="C45" s="1">
-        <v>3</v>
+        <v>303</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>72</v>
@@ -4595,7 +4624,7 @@
         <v>91</v>
       </c>
       <c r="C46" s="1">
-        <v>3</v>
+        <v>303</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>98</v>
@@ -4612,7 +4641,7 @@
         <v>91</v>
       </c>
       <c r="C47" s="1">
-        <v>3</v>
+        <v>303</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>100</v>
@@ -4629,7 +4658,7 @@
         <v>91</v>
       </c>
       <c r="C48" s="1">
-        <v>3</v>
+        <v>303</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>102</v>
@@ -4646,7 +4675,7 @@
         <v>91</v>
       </c>
       <c r="C49" s="1">
-        <v>3</v>
+        <v>303</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>104</v>
@@ -4663,7 +4692,7 @@
         <v>91</v>
       </c>
       <c r="C50" s="1">
-        <v>3</v>
+        <v>303</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>106</v>
@@ -4680,7 +4709,7 @@
         <v>91</v>
       </c>
       <c r="C51" s="1">
-        <v>3</v>
+        <v>303</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>72</v>
@@ -4697,7 +4726,7 @@
         <v>91</v>
       </c>
       <c r="C52" s="1">
-        <v>3</v>
+        <v>303</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>110</v>
@@ -4714,7 +4743,7 @@
         <v>91</v>
       </c>
       <c r="C53" s="1">
-        <v>3</v>
+        <v>303</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>112</v>
@@ -4731,7 +4760,7 @@
         <v>114</v>
       </c>
       <c r="C54" s="1">
-        <v>4</v>
+        <v>304</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>72</v>
@@ -4748,7 +4777,7 @@
         <v>114</v>
       </c>
       <c r="C55" s="1">
-        <v>4</v>
+        <v>304</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>117</v>
@@ -4765,7 +4794,7 @@
         <v>114</v>
       </c>
       <c r="C56" s="1">
-        <v>4</v>
+        <v>304</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>119</v>
@@ -4782,7 +4811,7 @@
         <v>114</v>
       </c>
       <c r="C57" s="1">
-        <v>4</v>
+        <v>304</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>121</v>
@@ -4799,7 +4828,7 @@
         <v>114</v>
       </c>
       <c r="C58" s="1">
-        <v>4</v>
+        <v>304</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>72</v>
@@ -4816,7 +4845,7 @@
         <v>114</v>
       </c>
       <c r="C59" s="1">
-        <v>4</v>
+        <v>304</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>125</v>
@@ -4833,7 +4862,7 @@
         <v>53</v>
       </c>
       <c r="C60" s="1">
-        <v>5</v>
+        <v>305</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>72</v>
@@ -4850,7 +4879,7 @@
         <v>53</v>
       </c>
       <c r="C61" s="1">
-        <v>5</v>
+        <v>305</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>129</v>
@@ -4867,7 +4896,7 @@
         <v>53</v>
       </c>
       <c r="C62" s="1">
-        <v>5</v>
+        <v>305</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>131</v>
@@ -4884,7 +4913,7 @@
         <v>53</v>
       </c>
       <c r="C63" s="1">
-        <v>5</v>
+        <v>305</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>133</v>
@@ -4901,7 +4930,7 @@
         <v>53</v>
       </c>
       <c r="C64" s="1">
-        <v>5</v>
+        <v>305</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>135</v>
@@ -4918,7 +4947,7 @@
         <v>53</v>
       </c>
       <c r="C65" s="1">
-        <v>5</v>
+        <v>305</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>137</v>
@@ -4935,7 +4964,7 @@
         <v>53</v>
       </c>
       <c r="C66" s="1">
-        <v>5</v>
+        <v>305</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>139</v>
@@ -4952,7 +4981,7 @@
         <v>53</v>
       </c>
       <c r="C67" s="1">
-        <v>5</v>
+        <v>305</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>141</v>
@@ -4969,7 +4998,7 @@
         <v>53</v>
       </c>
       <c r="C68" s="1">
-        <v>5</v>
+        <v>305</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>143</v>
@@ -4986,7 +5015,7 @@
         <v>53</v>
       </c>
       <c r="C69" s="1">
-        <v>5</v>
+        <v>305</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>145</v>
@@ -5003,7 +5032,7 @@
         <v>53</v>
       </c>
       <c r="C70" s="1">
-        <v>5</v>
+        <v>305</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>147</v>
@@ -5020,7 +5049,7 @@
         <v>53</v>
       </c>
       <c r="C71" s="1">
-        <v>5</v>
+        <v>305</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>149</v>
@@ -5037,7 +5066,7 @@
         <v>151</v>
       </c>
       <c r="C72" s="1">
-        <v>6</v>
+        <v>306</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>152</v>
@@ -5054,7 +5083,7 @@
         <v>151</v>
       </c>
       <c r="C73" s="1">
-        <v>6</v>
+        <v>306</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>154</v>
@@ -5071,7 +5100,7 @@
         <v>151</v>
       </c>
       <c r="C74" s="1">
-        <v>6</v>
+        <v>306</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>156</v>
@@ -5088,7 +5117,7 @@
         <v>151</v>
       </c>
       <c r="C75" s="1">
-        <v>6</v>
+        <v>306</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>158</v>
@@ -5105,7 +5134,7 @@
         <v>151</v>
       </c>
       <c r="C76" s="1">
-        <v>6</v>
+        <v>306</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>160</v>
@@ -5122,7 +5151,7 @@
         <v>151</v>
       </c>
       <c r="C77" s="1">
-        <v>6</v>
+        <v>306</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>162</v>
@@ -5139,7 +5168,7 @@
         <v>151</v>
       </c>
       <c r="C78" s="1">
-        <v>6</v>
+        <v>306</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>164</v>
@@ -5156,7 +5185,7 @@
         <v>151</v>
       </c>
       <c r="C79" s="1">
-        <v>6</v>
+        <v>306</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>166</v>
@@ -5173,7 +5202,7 @@
         <v>151</v>
       </c>
       <c r="C80" s="1">
-        <v>6</v>
+        <v>306</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>168</v>
@@ -5190,7 +5219,7 @@
         <v>151</v>
       </c>
       <c r="C81" s="1">
-        <v>6</v>
+        <v>306</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>170</v>
@@ -5209,19 +5238,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04BC24B8-F41E-40CA-8033-2ECF046AC01F}">
-  <dimension ref="A1:C79"/>
+  <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C79"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74:D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
+    <col min="1" max="1" width="20.9296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.19921875" customWidth="1"/>
     <col min="3" max="3" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -5231,8 +5261,11 @@
       <c r="C1" s="1" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>316</v>
       </c>
@@ -5242,8 +5275,11 @@
       <c r="C2" s="1" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D2" s="3">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>316</v>
       </c>
@@ -5253,8 +5289,11 @@
       <c r="C3" s="1" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D3" s="3">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>316</v>
       </c>
@@ -5264,8 +5303,11 @@
       <c r="C4" s="1" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D4" s="3">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>316</v>
       </c>
@@ -5275,8 +5317,11 @@
       <c r="C5" s="1" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D5" s="3">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>316</v>
       </c>
@@ -5286,8 +5331,11 @@
       <c r="C6" s="1" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D6" s="3">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>316</v>
       </c>
@@ -5297,8 +5345,11 @@
       <c r="C7" s="1" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D7" s="3">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>316</v>
       </c>
@@ -5308,8 +5359,11 @@
       <c r="C8" s="1" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D8" s="3">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>316</v>
       </c>
@@ -5319,8 +5373,11 @@
       <c r="C9" s="1" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D9" s="3">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>316</v>
       </c>
@@ -5330,8 +5387,11 @@
       <c r="C10" s="1" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D10" s="3">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>316</v>
       </c>
@@ -5341,8 +5401,11 @@
       <c r="C11" s="1" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D11" s="3">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>316</v>
       </c>
@@ -5352,8 +5415,11 @@
       <c r="C12" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D12" s="3">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>339</v>
       </c>
@@ -5363,8 +5429,11 @@
       <c r="C13" s="1" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D13" s="3">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>339</v>
       </c>
@@ -5374,8 +5443,11 @@
       <c r="C14" s="1" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D14" s="3">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>339</v>
       </c>
@@ -5385,8 +5457,11 @@
       <c r="C15" s="1" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D15" s="3">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>339</v>
       </c>
@@ -5396,8 +5471,11 @@
       <c r="C16" s="1" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D16" s="3">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>339</v>
       </c>
@@ -5407,8 +5485,11 @@
       <c r="C17" s="1" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D17" s="3">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>339</v>
       </c>
@@ -5418,8 +5499,11 @@
       <c r="C18" s="1" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D18" s="3">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>339</v>
       </c>
@@ -5429,8 +5513,11 @@
       <c r="C19" s="1" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D19" s="3">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>354</v>
       </c>
@@ -5440,8 +5527,11 @@
       <c r="C20" s="1" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D20" s="3">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>354</v>
       </c>
@@ -5451,8 +5541,11 @@
       <c r="C21" s="1" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D21" s="3">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>354</v>
       </c>
@@ -5462,8 +5555,11 @@
       <c r="C22" s="1" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D22" s="3">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>354</v>
       </c>
@@ -5473,8 +5569,11 @@
       <c r="C23" s="1" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D23" s="3">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>363</v>
       </c>
@@ -5484,8 +5583,11 @@
       <c r="C24" s="1" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D24" s="3">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>363</v>
       </c>
@@ -5495,8 +5597,11 @@
       <c r="C25" s="1" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D25" s="3">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>363</v>
       </c>
@@ -5506,8 +5611,11 @@
       <c r="C26" s="1" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D26" s="3">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>363</v>
       </c>
@@ -5517,8 +5625,11 @@
       <c r="C27" s="1" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D27" s="3">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>363</v>
       </c>
@@ -5528,8 +5639,11 @@
       <c r="C28" s="1" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D28" s="3">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>363</v>
       </c>
@@ -5539,8 +5653,11 @@
       <c r="C29" s="1" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D29" s="3">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>376</v>
       </c>
@@ -5550,8 +5667,11 @@
       <c r="C30" s="1" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D30" s="3">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>376</v>
       </c>
@@ -5561,8 +5681,11 @@
       <c r="C31" s="1" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D31" s="3">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>376</v>
       </c>
@@ -5572,8 +5695,11 @@
       <c r="C32" s="1" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D32" s="3">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>376</v>
       </c>
@@ -5583,8 +5709,11 @@
       <c r="C33" s="1" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D33" s="3">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>376</v>
       </c>
@@ -5594,8 +5723,11 @@
       <c r="C34" s="1" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D34" s="3">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>376</v>
       </c>
@@ -5605,8 +5737,11 @@
       <c r="C35" s="1" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D35" s="3">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>376</v>
       </c>
@@ -5616,8 +5751,11 @@
       <c r="C36" s="1" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D36" s="3">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>391</v>
       </c>
@@ -5627,8 +5765,11 @@
       <c r="C37" s="1" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D37" s="3">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>391</v>
       </c>
@@ -5638,8 +5779,11 @@
       <c r="C38" s="1" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D38" s="3">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>391</v>
       </c>
@@ -5649,8 +5793,11 @@
       <c r="C39" s="1" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D39" s="3">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>391</v>
       </c>
@@ -5660,8 +5807,11 @@
       <c r="C40" s="1" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D40" s="3">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>391</v>
       </c>
@@ -5671,8 +5821,11 @@
       <c r="C41" s="1" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D41" s="3">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>391</v>
       </c>
@@ -5682,8 +5835,11 @@
       <c r="C42" s="1" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D42" s="3">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>391</v>
       </c>
@@ -5693,8 +5849,11 @@
       <c r="C43" s="1" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D43" s="3">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>391</v>
       </c>
@@ -5704,8 +5863,11 @@
       <c r="C44" s="1" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D44" s="3">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>391</v>
       </c>
@@ -5715,8 +5877,11 @@
       <c r="C45" s="1" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D45" s="3">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
         <v>391</v>
       </c>
@@ -5726,8 +5891,11 @@
       <c r="C46" s="1" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D46" s="3">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>391</v>
       </c>
@@ -5737,8 +5905,11 @@
       <c r="C47" s="1" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D47" s="3">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>391</v>
       </c>
@@ -5748,8 +5919,11 @@
       <c r="C48" s="1" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D48" s="3">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
         <v>391</v>
       </c>
@@ -5759,8 +5933,11 @@
       <c r="C49" s="1" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D49" s="3">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
         <v>391</v>
       </c>
@@ -5770,8 +5947,11 @@
       <c r="C50" s="1" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D50" s="3">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
         <v>391</v>
       </c>
@@ -5781,8 +5961,11 @@
       <c r="C51" s="1" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D51" s="3">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
         <v>391</v>
       </c>
@@ -5792,8 +5975,11 @@
       <c r="C52" s="1" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D52" s="3">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
         <v>391</v>
       </c>
@@ -5803,8 +5989,11 @@
       <c r="C53" s="1" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D53" s="3">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
         <v>391</v>
       </c>
@@ -5814,8 +6003,11 @@
       <c r="C54" s="1" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D54" s="3">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
         <v>391</v>
       </c>
@@ -5825,8 +6017,11 @@
       <c r="C55" s="1" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D55" s="3">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
         <v>430</v>
       </c>
@@ -5836,8 +6031,11 @@
       <c r="C56" s="1" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D56" s="3">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
         <v>430</v>
       </c>
@@ -5847,8 +6045,11 @@
       <c r="C57" s="1" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D57" s="3">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
         <v>430</v>
       </c>
@@ -5858,8 +6059,11 @@
       <c r="C58" s="1" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D58" s="3">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
         <v>430</v>
       </c>
@@ -5869,8 +6073,11 @@
       <c r="C59" s="1" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D59" s="3">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
         <v>430</v>
       </c>
@@ -5880,8 +6087,11 @@
       <c r="C60" s="1" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D60" s="3">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
         <v>430</v>
       </c>
@@ -5891,8 +6101,11 @@
       <c r="C61" s="1" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D61" s="3">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
         <v>430</v>
       </c>
@@ -5902,8 +6115,11 @@
       <c r="C62" s="1" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D62" s="3">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
         <v>430</v>
       </c>
@@ -5913,8 +6129,11 @@
       <c r="C63" s="1" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D63" s="3">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
         <v>430</v>
       </c>
@@ -5924,8 +6143,11 @@
       <c r="C64" s="1" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D64" s="3">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
         <v>430</v>
       </c>
@@ -5935,8 +6157,11 @@
       <c r="C65" s="1" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D65" s="3">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
         <v>430</v>
       </c>
@@ -5946,8 +6171,11 @@
       <c r="C66" s="1" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D66" s="3">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
         <v>453</v>
       </c>
@@ -5957,8 +6185,11 @@
       <c r="C67" s="1" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D67" s="3">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
         <v>453</v>
       </c>
@@ -5968,8 +6199,11 @@
       <c r="C68" s="1" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D68" s="3">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
         <v>453</v>
       </c>
@@ -5979,8 +6213,11 @@
       <c r="C69" s="1" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D69" s="3">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
         <v>453</v>
       </c>
@@ -5990,8 +6227,11 @@
       <c r="C70" s="1" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D70" s="3">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
         <v>453</v>
       </c>
@@ -6001,8 +6241,11 @@
       <c r="C71" s="1" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D71" s="3">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
         <v>453</v>
       </c>
@@ -6012,8 +6255,11 @@
       <c r="C72" s="1" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D72" s="3">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
         <v>453</v>
       </c>
@@ -6023,8 +6269,11 @@
       <c r="C73" s="1" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D73" s="3">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
         <v>468</v>
       </c>
@@ -6034,8 +6283,11 @@
       <c r="C74" s="1" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D74" s="3">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
         <v>468</v>
       </c>
@@ -6045,8 +6297,11 @@
       <c r="C75" s="1" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D75" s="3">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
         <v>468</v>
       </c>
@@ -6056,8 +6311,11 @@
       <c r="C76" s="1" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D76" s="3">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
         <v>468</v>
       </c>
@@ -6067,8 +6325,11 @@
       <c r="C77" s="1" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D77" s="3">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
         <v>468</v>
       </c>
@@ -6078,8 +6339,11 @@
       <c r="C78" s="1" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D78" s="3">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
         <v>468</v>
       </c>
@@ -6088,6 +6352,9 @@
       </c>
       <c r="C79" s="1" t="s">
         <v>480</v>
+      </c>
+      <c r="D79" s="3">
+        <v>409</v>
       </c>
     </row>
   </sheetData>

--- a/LGA-Regions.xlsx
+++ b/LGA-Regions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00AD7A4-4B1C-4A8F-962A-78E58851B547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A93E32-8186-473C-BECE-3D3005FEA446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="2" xr2:uid="{1A109F9A-8592-4646-A581-708CE72A1E47}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="482">
   <si>
     <t>Local government area</t>
   </si>
@@ -981,9 +981,6 @@
   </si>
   <si>
     <t>LGA code</t>
-  </si>
-  <si>
-    <t>Local Government Area</t>
   </si>
   <si>
     <t>South East Queensland</t>
@@ -1532,16 +1529,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="18">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1667,33 +1681,6 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2065,13 +2052,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{64C96B18-0BEB-4B4D-B259-16A5D1C25488}" name="LGA_Regions_QLD" displayName="LGA_Regions_QLD" ref="A1:D79" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{64C96B18-0BEB-4B4D-B259-16A5D1C25488}" name="LGA_Regions_QLD" displayName="LGA_Regions_QLD" ref="A1:D79" totalsRowShown="0" headerRowDxfId="0" dataDxfId="5">
   <autoFilter ref="A1:D79" xr:uid="{64C96B18-0BEB-4B4D-B259-16A5D1C25488}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{086522EF-213C-471F-AEC1-55572E22A61B}" name="Region" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{833AA5B1-E4F5-4B72-8411-C36DA3C264B9}" name="LGA code" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{6C84C86C-0D20-4C17-8CE9-84D771224481}" name="Local Government Area" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{7AAD1015-0C95-4323-8FAF-42C9A3985C68}" name="Region - Sort" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{086522EF-213C-471F-AEC1-55572E22A61B}" name="Region" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{833AA5B1-E4F5-4B72-8411-C36DA3C264B9}" name="LGA code" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{6C84C86C-0D20-4C17-8CE9-84D771224481}" name="Local government area" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{7AAD1015-0C95-4323-8FAF-42C9A3985C68}" name="Region - Sort" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3839,9 +3826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BF705EE-288C-46EC-B42B-0DEDB2DBA442}">
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -4142,7 +4127,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>15</v>
@@ -4151,10 +4136,10 @@
         <v>301</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
@@ -5240,8 +5225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04BC24B8-F41E-40CA-8033-2ECF046AC01F}">
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74:D79"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5249,1111 +5234,1112 @@
     <col min="1" max="1" width="20.9296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.19921875" customWidth="1"/>
     <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="D2" s="1">
         <v>401</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="D3" s="1">
         <v>401</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="D4" s="1">
         <v>401</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="D5" s="1">
         <v>401</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="D6" s="1">
         <v>401</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="D7" s="1">
         <v>401</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="D8" s="1">
         <v>401</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="D9" s="1">
         <v>401</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="D10" s="1">
         <v>401</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="D11" s="1">
         <v>401</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="D12" s="3">
+      <c r="D12" s="1">
         <v>401</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D13" s="3">
+      <c r="D13" s="1">
         <v>402</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D14" s="3">
+      <c r="D14" s="1">
         <v>402</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="D15" s="3">
+      <c r="D15" s="1">
         <v>402</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="D16" s="3">
+      <c r="D16" s="1">
         <v>402</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="D17" s="3">
+      <c r="D17" s="1">
         <v>402</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="D18" s="3">
+      <c r="D18" s="1">
         <v>402</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="D19" s="3">
+      <c r="D19" s="1">
         <v>402</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="D20" s="3">
+      <c r="D20" s="1">
         <v>403</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="D21" s="3">
+      <c r="D21" s="1">
         <v>403</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="D22" s="3">
+      <c r="D22" s="1">
         <v>403</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="D23" s="3">
+      <c r="D23" s="1">
         <v>403</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="D24" s="3">
+      <c r="D24" s="1">
         <v>404</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="D25" s="3">
+      <c r="D25" s="1">
         <v>404</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="D26" s="3">
+      <c r="D26" s="1">
         <v>404</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="D27" s="3">
+      <c r="D27" s="1">
         <v>404</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D28" s="3">
+      <c r="D28" s="1">
         <v>404</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="D29" s="3">
+      <c r="D29" s="1">
         <v>404</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="D30" s="3">
+      <c r="D30" s="1">
         <v>405</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="D31" s="3">
+      <c r="D31" s="1">
         <v>405</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="D32" s="3">
+      <c r="D32" s="1">
         <v>405</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="D33" s="3">
+      <c r="D33" s="1">
         <v>405</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="D34" s="3">
+      <c r="D34" s="1">
         <v>405</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="D35" s="3">
+      <c r="D35" s="1">
         <v>405</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="D36" s="3">
+      <c r="D36" s="1">
         <v>405</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="D37" s="3">
+      <c r="D37" s="1">
         <v>406</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="D38" s="3">
+      <c r="D38" s="1">
         <v>406</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="D39" s="3">
+      <c r="D39" s="1">
         <v>406</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="D40" s="3">
+      <c r="D40" s="1">
         <v>406</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="D41" s="3">
+      <c r="D41" s="1">
         <v>406</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="D42" s="3">
+      <c r="D42" s="1">
         <v>406</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="D43" s="3">
+      <c r="D43" s="1">
         <v>406</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="D44" s="3">
+      <c r="D44" s="1">
         <v>406</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="D45" s="3">
+      <c r="D45" s="1">
         <v>406</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="D46" s="3">
+      <c r="D46" s="1">
         <v>406</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="D47" s="3">
+      <c r="D47" s="1">
         <v>406</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="D48" s="3">
+      <c r="D48" s="1">
         <v>406</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="D49" s="3">
+      <c r="D49" s="1">
         <v>406</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="D50" s="3">
+      <c r="D50" s="1">
         <v>406</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="D51" s="3">
+      <c r="D51" s="1">
         <v>406</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="D52" s="3">
+      <c r="D52" s="1">
         <v>406</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="D53" s="3">
+      <c r="D53" s="1">
         <v>406</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="D54" s="3">
+      <c r="D54" s="1">
         <v>406</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="D55" s="3">
+      <c r="D55" s="1">
         <v>406</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="D56" s="3">
+      <c r="D56" s="1">
         <v>407</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="D57" s="3">
+      <c r="D57" s="1">
         <v>407</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="D58" s="3">
+      <c r="D58" s="1">
         <v>407</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="D59" s="3">
+      <c r="D59" s="1">
         <v>407</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="D60" s="3">
+      <c r="D60" s="1">
         <v>407</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="D61" s="3">
+      <c r="D61" s="1">
         <v>407</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="D62" s="3">
+      <c r="D62" s="1">
         <v>407</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="D63" s="3">
+      <c r="D63" s="1">
         <v>407</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="D64" s="3">
+      <c r="D64" s="1">
         <v>407</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="D65" s="3">
+      <c r="D65" s="1">
         <v>407</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="D66" s="3">
+      <c r="D66" s="1">
         <v>407</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="D67" s="3">
+      <c r="D67" s="1">
         <v>408</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="D68" s="3">
+      <c r="D68" s="1">
         <v>408</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B69" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="D69" s="3">
+      <c r="D69" s="1">
         <v>408</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B70" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="D70" s="3">
+      <c r="D70" s="1">
         <v>408</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="D71" s="3">
+      <c r="D71" s="1">
         <v>408</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="D72" s="3">
+      <c r="D72" s="1">
         <v>408</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="D73" s="3">
+      <c r="D73" s="1">
         <v>408</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="C74" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="D74" s="3">
+      <c r="D74" s="1">
         <v>409</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="C75" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="D75" s="3">
+      <c r="D75" s="1">
         <v>409</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="D76" s="3">
+      <c r="D76" s="1">
         <v>409</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="D77" s="3">
+      <c r="D77" s="1">
         <v>409</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B78" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="D78" s="3">
+      <c r="D78" s="1">
         <v>409</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B79" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="D79" s="3">
+      <c r="D79" s="1">
         <v>409</v>
       </c>
     </row>

--- a/LGA-Regions.xlsx
+++ b/LGA-Regions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A93E32-8186-473C-BECE-3D3005FEA446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9958A6-B4F9-4BBE-9215-DA3E18A9F925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="2" xr2:uid="{1A109F9A-8592-4646-A581-708CE72A1E47}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="1" xr2:uid="{1A109F9A-8592-4646-A581-708CE72A1E47}"/>
   </bookViews>
   <sheets>
     <sheet name="LGA Regions NSW" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="485">
   <si>
     <t>Local government area</t>
   </si>
@@ -1482,6 +1482,15 @@
   </si>
   <si>
     <t>Merri-bek</t>
+  </si>
+  <si>
+    <t>Bayside (Vic.)</t>
+  </si>
+  <si>
+    <t>Kingston (Vic.)</t>
+  </si>
+  <si>
+    <t>Latrobe (Vic.)</t>
   </si>
 </sst>
 </file>
@@ -1538,24 +1547,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="18">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1689,6 +1680,24 @@
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -2052,13 +2061,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{64C96B18-0BEB-4B4D-B259-16A5D1C25488}" name="LGA_Regions_QLD" displayName="LGA_Regions_QLD" ref="A1:D79" totalsRowShown="0" headerRowDxfId="0" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{64C96B18-0BEB-4B4D-B259-16A5D1C25488}" name="LGA_Regions_QLD" displayName="LGA_Regions_QLD" ref="A1:D79" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A1:D79" xr:uid="{64C96B18-0BEB-4B4D-B259-16A5D1C25488}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{086522EF-213C-471F-AEC1-55572E22A61B}" name="Region" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{833AA5B1-E4F5-4B72-8411-C36DA3C264B9}" name="LGA code" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{6C84C86C-0D20-4C17-8CE9-84D771224481}" name="Local government area" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{7AAD1015-0C95-4323-8FAF-42C9A3985C68}" name="Region - Sort" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{086522EF-213C-471F-AEC1-55572E22A61B}" name="Region" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{833AA5B1-E4F5-4B72-8411-C36DA3C264B9}" name="LGA code" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{6C84C86C-0D20-4C17-8CE9-84D771224481}" name="Local government area" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{7AAD1015-0C95-4323-8FAF-42C9A3985C68}" name="Region - Sort" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3826,7 +3835,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BF705EE-288C-46EC-B42B-0DEDB2DBA442}">
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -3952,7 +3963,7 @@
         <v>18</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>18</v>
+        <v>482</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
@@ -4037,7 +4048,7 @@
         <v>28</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>28</v>
+        <v>483</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
@@ -4802,7 +4813,7 @@
         <v>121</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>121</v>
+        <v>484</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.45">
@@ -5225,7 +5236,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04BC24B8-F41E-40CA-8033-2ECF046AC01F}">
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>

--- a/LGA-Regions.xlsx
+++ b/LGA-Regions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9958A6-B4F9-4BBE-9215-DA3E18A9F925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE022D68-F553-4B16-A9EC-8B6302CBE17C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="1" xr2:uid="{1A109F9A-8592-4646-A581-708CE72A1E47}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="482">
   <si>
     <t>Local government area</t>
   </si>
@@ -1482,15 +1482,6 @@
   </si>
   <si>
     <t>Merri-bek</t>
-  </si>
-  <si>
-    <t>Bayside (Vic.)</t>
-  </si>
-  <si>
-    <t>Kingston (Vic.)</t>
-  </si>
-  <si>
-    <t>Latrobe (Vic.)</t>
   </si>
 </sst>
 </file>
@@ -3835,8 +3826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BF705EE-288C-46EC-B42B-0DEDB2DBA442}">
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3963,7 +3954,7 @@
         <v>18</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>482</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
@@ -4048,7 +4039,7 @@
         <v>28</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>483</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
@@ -4813,7 +4804,7 @@
         <v>121</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>484</v>
+        <v>121</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.45">

--- a/LGA-Regions.xlsx
+++ b/LGA-Regions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE022D68-F553-4B16-A9EC-8B6302CBE17C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0FB2C4A-A6A6-43DB-9975-C9B993F055FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="1" xr2:uid="{1A109F9A-8592-4646-A581-708CE72A1E47}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="483">
   <si>
     <t>Local government area</t>
   </si>
@@ -1482,6 +1482,9 @@
   </si>
   <si>
     <t>Merri-bek</t>
+  </si>
+  <si>
+    <t>Bayside (Vic.)</t>
   </si>
 </sst>
 </file>
@@ -3826,8 +3829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BF705EE-288C-46EC-B42B-0DEDB2DBA442}">
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3954,7 +3957,7 @@
         <v>18</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>18</v>
+        <v>482</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">

--- a/LGA-Regions.xlsx
+++ b/LGA-Regions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0FB2C4A-A6A6-43DB-9975-C9B993F055FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC71F58-CB91-459D-9D8E-0B3A454AAA61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="1" xr2:uid="{1A109F9A-8592-4646-A581-708CE72A1E47}"/>
   </bookViews>

--- a/LGA-Regions.xlsx
+++ b/LGA-Regions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-outbreak-paths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC71F58-CB91-459D-9D8E-0B3A454AAA61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0516DF-5924-4275-A137-5C807234929E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="1" xr2:uid="{1A109F9A-8592-4646-A581-708CE72A1E47}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="485">
   <si>
     <t>Local government area</t>
   </si>
@@ -1485,6 +1485,12 @@
   </si>
   <si>
     <t>Bayside (Vic.)</t>
+  </si>
+  <si>
+    <t>Kingston (Vic.)</t>
+  </si>
+  <si>
+    <t>Latrobe (Vic.)</t>
   </si>
 </sst>
 </file>
@@ -3829,8 +3835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BF705EE-288C-46EC-B42B-0DEDB2DBA442}">
   <dimension ref="A1:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4042,7 +4048,7 @@
         <v>28</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>28</v>
+        <v>483</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
@@ -4807,7 +4813,7 @@
         <v>121</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>121</v>
+        <v>484</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.45">
